--- a/combined_matches.xlsx
+++ b/combined_matches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,42 +493,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parva Ligi</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CSKA Sofya</t>
+          <t>Aalesunds</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Hodd IL</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2144759</v>
+        <v>2125759</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>KG Yok</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="J2" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -539,42 +539,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parva Ligi</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CSKA Sofya</t>
+          <t>Sturm Gr.(A)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2144759</v>
+        <v>2125593</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
       <c r="J3" t="n">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -585,42 +585,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parva Ligi</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CSKA Sofya</t>
+          <t>IK Start</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Egersunds</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2144759</v>
+        <v>2125760</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>İY 1</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
@@ -631,42 +631,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parva Ligi</t>
+          <t>ÇİN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSKA Sofya</t>
+          <t>Yunnan Yukun</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2144759</v>
+        <v>2125627</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>İY 1</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.21</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.21</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="6">
@@ -677,42 +677,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.LigYüks</t>
+          <t>DAN2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Silivrispor</t>
+          <t>HB Koege</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mazıdağı Fosfat Spor</t>
+          <t>B93 Kopenhag</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2158569</v>
+        <v>2127119</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
@@ -723,42 +723,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.LigYüks</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Silivrispor</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mazıdağı Fosfat Spor</t>
+          <t>KFUM Oslo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2158569</v>
+        <v>2125756</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2,5 Alt</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="J7" t="n">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="8">
@@ -769,42 +769,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.Lig Yüks</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>52 Orduspor</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>K.Çekmece Sinop</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2158572</v>
+        <v>2125596</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2,5 Alt</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="J8" t="n">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -815,42 +815,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.Lig Yüks</t>
+          <t>Suudi Prof</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>52 Orduspor</t>
+          <t>AL Orouba SC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>K.Çekmece Sinop</t>
+          <t>AL Khaleej</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2158572</v>
+        <v>2123390</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1.97</v>
+        <v>1.36</v>
       </c>
       <c r="J9" t="n">
-        <v>1.88</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="10">
@@ -861,42 +861,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2. Bundesl</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Preussen M.</t>
+          <t xml:space="preserve">Dfk Dainava </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Suduva</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2118605</v>
+        <v>2125744</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>İY X</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="11">
@@ -907,42 +907,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2. Bundesl</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Preussen M.</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>KFUM Oslo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2118605</v>
+        <v>2125756</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>KG Yok</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2.11</v>
+        <v>1.37</v>
       </c>
       <c r="J11" t="n">
-        <v>2.11</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="12">
@@ -953,42 +953,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2. Bundesl</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Preussen M.</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2118605</v>
+        <v>2125596</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="J12" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="13">
@@ -999,42 +999,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>ÇİN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dziugas</t>
+          <t>Yunnan Yukun</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Zalgiris</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2119092</v>
+        <v>2125627</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>MS 2</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="J13" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14">
@@ -1045,42 +1045,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>Ekstraklas</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dziugas</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zalgiris</t>
+          <t>Radomiak R.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2119092</v>
+        <v>2127490</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="J14" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="15">
@@ -1091,42 +1091,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>Suudi Prof</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dziugas</t>
+          <t>AL Orouba SC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Zalgiris</t>
+          <t>AL Khaleej</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2119092</v>
+        <v>2123390</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2,5 Alt</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="16">
@@ -1137,42 +1137,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>SV Horn</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Std. Nyonnis</t>
+          <t>Kapfenberg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2119684</v>
+        <v>2125592</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>MS 2</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="J16" t="n">
-        <v>1.38</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="17">
@@ -1183,42 +1183,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DAN2</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2118422</v>
+        <v>2125762</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2.06</v>
+        <v>1.29</v>
       </c>
       <c r="J17" t="n">
-        <v>2.07</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="18">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1239,16 +1239,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Hilleroed</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2118422</v>
+        <v>2127120</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="J18" t="n">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1285,16 +1285,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>HB Koege</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>B93 Kopenhag</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2118422</v>
+        <v>2127119</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="J19" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="20">
@@ -1321,42 +1321,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DAN2</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t xml:space="preserve">Dfk Dainava </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Suduva</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2118422</v>
+        <v>2125744</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>MS 2</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="J20" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="21">
@@ -1367,26 +1367,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ukrayna Premier Lig</t>
+          <t>Macaristan 1. Ligi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Polissya</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dinamo Kiev</t>
+          <t>Puskas Akad.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2119734</v>
+        <v>2127318</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="J21" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22">
@@ -1413,26 +1413,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ukrayna Premier Lig</t>
+          <t>A-Ligi</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Polissya</t>
+          <t>Western U.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dinamo Kiev</t>
+          <t>Mel. City</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2119734</v>
+        <v>2167654</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="J22" t="n">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="23">
@@ -1459,42 +1459,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Parva Ligi</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Arda Kardzha</t>
+          <t xml:space="preserve">Dfk Dainava </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Suduva</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2143651</v>
+        <v>2125744</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>KG Yok</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1.84</v>
+        <v>1.46</v>
       </c>
       <c r="J23" t="n">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="24">
@@ -1505,42 +1505,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Parva Ligi</t>
+          <t>ROM1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Arda Kardzha</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Farul Cons.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2143651</v>
+        <v>2127560</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>MS 2</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="25">
@@ -1551,42 +1551,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Parva Ligi</t>
+          <t>A-Ligi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Arda Kardzha</t>
+          <t>Western U.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Mel. City</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2143651</v>
+        <v>2167654</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="J25" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="26">
@@ -1607,32 +1607,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R. Wien II</t>
+          <t>SV Stripfing</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Aus Lustenau</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2118052</v>
+        <v>2125590</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2.24</v>
+        <v>1.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27">
@@ -1648,37 +1648,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AVU2</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R. Wien II</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2118052</v>
+        <v>2125751</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2.08</v>
+        <v>1.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.13</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="28">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AVU2</t>
+          <t>ROM1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R. Wien II</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Farul Cons.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2118052</v>
+        <v>2127560</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Altı/Üstü 1,5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>1,5 Üst</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="J28" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="29">
@@ -1740,37 +1740,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HNL1</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>L. Zagreb</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2118312</v>
+        <v>2125765</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="J29" t="n">
-        <v>1.81</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="30">
@@ -1781,42 +1781,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Süper Lig</t>
+          <t>ROM1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Farul Cons.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2119701</v>
+        <v>2127560</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>İY X</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="J30" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="31">
@@ -1827,42 +1827,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Süper Lig</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2119701</v>
+        <v>2125750</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2.16</v>
+        <v>1.33</v>
       </c>
       <c r="J31" t="n">
-        <v>2.16</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="32">
@@ -1873,42 +1873,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>A-Ligi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Stade Ouchy</t>
+          <t>Western U.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Mel. City</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2119686</v>
+        <v>2167654</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>MS 2</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="J32" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="33">
@@ -1919,42 +1919,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>ÇİN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Stade Ouchy</t>
+          <t>Yunnan Yukun</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2119686</v>
+        <v>2125627</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Altı/Üstü 3,5</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>3,5 Alt</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="J33" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="34">
@@ -1965,42 +1965,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ukrayna Premier Lig</t>
+          <t>BRUS1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Zorya Luhansk</t>
+          <t>Smorgon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Shakhtar D.</t>
+          <t>S. Mozyr</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2119730</v>
+        <v>2125623</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>İY 2</t>
+          <t>KG Yok</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="J34" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="35">
@@ -2011,42 +2011,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ukrayna Premier Lig</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Zorya Luhansk</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Shakhtar D.</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2119730</v>
+        <v>2125753</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>MS 2</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.17</v>
+        <v>2.02</v>
       </c>
       <c r="J35" t="n">
-        <v>1.17</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="36">
@@ -2057,26 +2057,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ukrayna Premier Lig</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Zorya Luhansk</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Shakhtar D.</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2119730</v>
+        <v>2125761</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2085,14 +2085,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>KG Yok</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="J36" t="n">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="37">
@@ -2103,26 +2103,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ukrayna Premier Lig</t>
+          <t>DAN2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Zorya Luhansk</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Shakhtar D.</t>
+          <t>Hobro IK</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2119730</v>
+        <v>2127121</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="J37" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38">
@@ -2149,42 +2149,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DAN2</t>
+          <t>LET1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>SK Super Nova</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hobro IK</t>
+          <t>FK Tukums 2000/Tss</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2118418</v>
+        <v>2125742</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>MS 2</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.97</v>
+        <v>1.58</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="39">
@@ -2195,42 +2195,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DAN2</t>
+          <t>LET1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>SK Super Nova</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hobro IK</t>
+          <t>FK Tukums 2000/Tss</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2118418</v>
+        <v>2125742</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>İY X</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2241,26 +2241,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AVU2</t>
+          <t>DAN2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Team für Wien</t>
+          <t>HB Koege</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SV Horn</t>
+          <t>B93 Kopenhag</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2118049</v>
+        <v>2127119</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2273,10 +2273,10 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="J40" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="41">
@@ -2292,37 +2292,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AVU2</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Team für Wien</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SV Horn</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2118049</v>
+        <v>2125765</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>İY 1</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="J41" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="42">
@@ -2338,37 +2338,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AVU2</t>
+          <t>BRUS1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Team für Wien</t>
+          <t>Torp. Zhodino</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SV Horn</t>
+          <t>Neman Grodno</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2118049</v>
+        <v>2125621</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>İY X</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="J42" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="43">
@@ -2379,42 +2379,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>DAN2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N. Xamax</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Hilleroed</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2119685</v>
+        <v>2127120</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>İY 2</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1.29</v>
+        <v>2.11</v>
       </c>
       <c r="J43" t="n">
-        <v>1.28</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="44">
@@ -2425,42 +2425,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N. Xamax</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2119685</v>
+        <v>2125753</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="J44" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="45">
@@ -2471,42 +2471,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N. Xamax</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Team für Wien</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2119685</v>
+        <v>2125594</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2.19</v>
+        <v>1.62</v>
       </c>
       <c r="J45" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="46">
@@ -2517,26 +2517,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N. Xamax</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2119685</v>
+        <v>2125755</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2545,14 +2545,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>MS 2</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="47">
@@ -2563,42 +2563,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1. Lig</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2118857</v>
+        <v>2125761</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J47" t="n">
         <v>1.43</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="48">
@@ -2609,42 +2609,42 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1. Lig</t>
+          <t>FİN1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Seinöjoen</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2118857</v>
+        <v>2125661</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>MS 2</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="J48" t="n">
-        <v>1.23</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="49">
@@ -2655,42 +2655,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1. Lig</t>
+          <t>Macaristan 1. Ligi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Puskas Akad.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2118857</v>
+        <v>2127318</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>İY 1</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="J49" t="n">
-        <v>1.86</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="50">
@@ -2701,42 +2701,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DAN2</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>SV Stripfing</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Aus Lustenau</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2118423</v>
+        <v>2125590</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="J50" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="51">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2757,32 +2757,32 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Hobro IK</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2118423</v>
+        <v>2127121</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>İY 1</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="J51" t="n">
-        <v>2.02</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="52">
@@ -2793,42 +2793,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DAN2</t>
+          <t>LET1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>SK Super Nova</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>FK Tukums 2000/Tss</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2118423</v>
+        <v>2125742</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="J52" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="53">
@@ -2839,42 +2839,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DAN2</t>
+          <t>LET1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>SK Super Nova</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>FK Tukums 2000/Tss</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2118423</v>
+        <v>2125742</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J53" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="54">
@@ -2885,42 +2885,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DAN2</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2118423</v>
+        <v>2125750</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="J54" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="55">
@@ -2931,42 +2931,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:35</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2. Bundesl</t>
+          <t>ÇİN</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nürnberg</t>
+          <t>Zhejiang</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>Henan Jianye</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2118607</v>
+        <v>2125626</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="J55" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="56">
@@ -2977,42 +2977,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Süper Lig</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Başakşehir</t>
+          <t>IK Start</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Egersunds</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2119699</v>
+        <v>2125760</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>İY 2</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="J56" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="57">
@@ -3023,42 +3023,42 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Süper Lig</t>
+          <t>ÇİN</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Başakşehir</t>
+          <t>Yunnan Yukun</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2119699</v>
+        <v>2125627</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MS 2</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="J57" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="58">
@@ -3069,42 +3069,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FİN1</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tampereen</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>KFUM Oslo</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2118496</v>
+        <v>2125756</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>2,5 Alt</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="J58" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="59">
@@ -3115,42 +3115,42 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FİN1</t>
+          <t>HNL1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tampereen</t>
+          <t>Istra 61</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2118496</v>
+        <v>2127050</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>İY 1</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="J59" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="60">
@@ -3161,42 +3161,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FİN1</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tampereen</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2118496</v>
+        <v>2125752</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="J60" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="61">
@@ -3207,42 +3207,42 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FİN1</t>
+          <t>BRUS1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tampereen</t>
+          <t>Smorgon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>S. Mozyr</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2118496</v>
+        <v>2125623</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>İY X</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="J61" t="n">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="62">
@@ -3253,42 +3253,42 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3. Lig</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>B. Dortmund II</t>
+          <t>Lyn Toppo.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2118588</v>
+        <v>2125763</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>2,5 Alt</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="J62" t="n">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="63">
@@ -3299,42 +3299,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3. Lig</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>B. Dortmund II</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2118588</v>
+        <v>2125752</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2.13</v>
+        <v>1.5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="64">
@@ -3345,42 +3345,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3. Lig</t>
+          <t>Suudi Prof</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>B. Dortmund II</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2118588</v>
+        <v>2123386</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>İY 2</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="J64" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="65">
@@ -3391,42 +3391,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Zalgiris V.</t>
+          <t>Sturm Gr.(A)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2119090</v>
+        <v>2125593</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>KG Yok</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="J65" t="n">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="66">
@@ -3437,26 +3437,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Zalgiris V.</t>
+          <t>Tromso IL</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2119090</v>
+        <v>2125754</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3465,14 +3465,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>MS 2</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="J66" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="67">
@@ -3483,42 +3483,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Zalgiris V.</t>
+          <t>IK Start</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Egersunds</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2119090</v>
+        <v>2125760</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2,5 Üst</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="J67" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="68">
@@ -3529,42 +3529,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Premier Li</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Keshla FK</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1910137</v>
+        <v>2125750</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Altı/Üstü 3,5</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>3,5 Alt</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="J68" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="69">
@@ -3575,42 +3575,42 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Premier Li</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Keshla FK</t>
+          <t>R. Wien II</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1910137</v>
+        <v>2125591</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>KG Yok</t>
+          <t>İY 1</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J69" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="70">
@@ -3621,26 +3621,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Premier Li</t>
+          <t>Ekstraklas</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Keshla FK</t>
+          <t>Radomiak R.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1910137</v>
+        <v>2127490</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="J70" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="71">
@@ -3667,39 +3667,39 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ROM1</t>
+          <t>Macaristan 1. Ligi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Puskas Akad.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2119381</v>
+        <v>2127318</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>İY 2</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J71" t="n">
         <v>1.57</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3723,32 +3723,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Farul Cons.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2119381</v>
+        <v>2127560</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="J72" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="73">
@@ -3759,42 +3759,42 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ROM1</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>Lyn Toppo.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2119381</v>
+        <v>2125763</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="J73" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="74">
@@ -3805,42 +3805,42 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ROM1</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2119381</v>
+        <v>2125762</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2,5 Alt</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="J74" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="75">
@@ -3851,26 +3851,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ROM1</t>
+          <t>Süper Lig</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>Nordsjælland</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2119381</v>
+        <v>2125640</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3883,10 +3883,10 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="J75" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="76">
@@ -3902,37 +3902,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LET1</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Rigas Skola</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Daugavpils</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2119078</v>
+        <v>2125752</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>1.91</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="77">
@@ -3943,26 +3943,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LET1</t>
+          <t>A-Ligi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rigas Skola</t>
+          <t>Western U.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Daugavpils</t>
+          <t>Mel. City</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2119078</v>
+        <v>2167654</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3971,14 +3971,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>KG Yok</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="J77" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="78">
@@ -3999,32 +3999,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Aus Lustenau</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>R. Wien II</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2118054</v>
+        <v>2125591</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1.87</v>
+        <v>1.23</v>
       </c>
       <c r="J78" t="n">
-        <v>1.86</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="79">
@@ -4035,26 +4035,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>AVU2</t>
+          <t>DAN2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Aus Lustenau</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Hobro IK</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2118054</v>
+        <v>2127121</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4063,14 +4063,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>İY 1</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="J79" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="80">
@@ -4081,42 +4081,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Macaristan 1. Ligi</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ETO Gyor</t>
+          <t>SV Stripfing</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Fehervar</t>
+          <t>Aus Lustenau</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2118878</v>
+        <v>2125590</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>İY X</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="J80" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="81">
@@ -4127,26 +4127,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Macaristan 1. Ligi</t>
+          <t>A-Ligi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ETO Gyor</t>
+          <t>Western U.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Fehervar</t>
+          <t>Mel. City</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2118878</v>
+        <v>2167654</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="J81" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="82">
@@ -4173,42 +4173,42 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Macaristan 1. Ligi</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ETO Gyor</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Fehervar</t>
+          <t>Team für Wien</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2118878</v>
+        <v>2125594</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="J82" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="83">
@@ -4229,32 +4229,32 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>St. Polten</t>
+          <t>Sturm Gr.(A)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Schwarz Weiss Bregen</t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2118053</v>
+        <v>2125593</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2.13</v>
+        <v>1.53</v>
       </c>
       <c r="J83" t="n">
-        <v>2.13</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="84">
@@ -4265,42 +4265,42 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AVU2</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>St. Polten</t>
+          <t xml:space="preserve">Dfk Dainava </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Schwarz Weiss Bregen</t>
+          <t>Suduva</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2118053</v>
+        <v>2125744</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>İY 1</t>
+          <t>2,5 Alt</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="J84" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="85">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>AVU2</t>
+          <t>Macaristan 1. Ligi</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>St. Polten</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Schwarz Weiss Bregen</t>
+          <t>Puskas Akad.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2118053</v>
+        <v>2127318</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Toplam Gol</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>2-3 Gol</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="J85" t="n">
-        <v>1.42</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="86">
@@ -4362,37 +4362,37 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AVU2</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>St. Polten</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Schwarz Weiss Bregen</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2118053</v>
+        <v>2125750</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="J86" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="87">
@@ -4403,42 +4403,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1. Lig</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Aalesunds</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Hodd IL</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2118849</v>
+        <v>2125759</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>İY 1</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="J87" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="88">
@@ -4449,42 +4449,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BAEBK</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sharjah</t>
+          <t>IK Start</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Egersunds</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2140851</v>
+        <v>2125760</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Karşılıklı Gol</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>KG Var</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1.58</v>
+        <v>2.01</v>
       </c>
       <c r="J88" t="n">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="89">
@@ -4495,42 +4495,42 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BAEBK</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sharjah</t>
+          <t>SV Horn</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Kapfenberg</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2140851</v>
+        <v>2125592</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>MS 2</t>
+          <t>İY X</t>
         </is>
       </c>
       <c r="I89" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J89" t="n">
         <v>2.19</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.22</v>
       </c>
     </row>
     <row r="90">
@@ -4546,37 +4546,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ekstraklas</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2119288</v>
+        <v>2125596</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Altı/Üstü 2,5</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2,5 Alt</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1.45</v>
+        <v>1.99</v>
       </c>
       <c r="J90" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="91">
@@ -4587,42 +4587,42 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>14:35</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ekstraklas</t>
+          <t>ÇİN</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Zhejiang</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Henan Jianye</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2119288</v>
+        <v>2125626</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>İlk Yarı Sonucu</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>MS 1</t>
+          <t>İY X</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="J91" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="92">
@@ -4633,42 +4633,42 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2118846</v>
+        <v>2125755</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>İY X</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="J92" t="n">
-        <v>1.89</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="93">
@@ -4679,42 +4679,42 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2118846</v>
+        <v>2125764</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Toplam Gol</t>
+          <t>Altı/Üstü 2,5</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2-3 Gol</t>
+          <t>2,5 Üst</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="J93" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="94">
@@ -4725,42 +4725,42 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>AVU2</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>SV Horn</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Kapfenberg</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2118846</v>
+        <v>2125592</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Maç Sonucu</t>
+          <t>Karşılıklı Gol</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>MS 2</t>
+          <t>KG Var</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2.24</v>
+        <v>1.28</v>
       </c>
       <c r="J94" t="n">
-        <v>2.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="95">
@@ -4771,42 +4771,42 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ROM1</t>
+          <t>NOR1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SCM Gloria Buzau</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>U. Slobozia</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2119382</v>
+        <v>2125764</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>İlk Yarı Sonucu</t>
+          <t>Maç Sonucu</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>İY 2</t>
+          <t>MS 1</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="J95" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="96">
@@ -4817,42 +4817,916 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2125753</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>İlk Yarı Sonucu</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>İY 1</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>KFUM Oslo</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>2125756</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>İlk Yarı Sonucu</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>İY X</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>FİN1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Gnistan</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Seinöjoen</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>2125661</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Toplam Gol</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2-3 Gol</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>DAN2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>HB Koege</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>B93 Kopenhag</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>2127119</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Maç Sonucu</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>MS 1</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>ROM1</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>SCM Gloria Buzau</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>U. Slobozia</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>2119382</v>
-      </c>
-      <c r="G96" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Otelul Galati</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Farul Cons.</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>2127560</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>Toplam Gol</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>2-3 Gol</t>
         </is>
       </c>
-      <c r="I96" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.79</v>
+      <c r="I100" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>2125750</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>İlk Yarı Sonucu</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>İY 1</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ÇİN</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>2125626</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Maç Sonucu</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>MS 1</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>2125755</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Karşılıklı Gol</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>KG Var</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>BRUS1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Smorgon</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>S. Mozyr</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>2125623</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Maç Sonucu</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>MS 2</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>2125751</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>İlk Yarı Sonucu</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>İY 1</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>2125752</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Maç Sonucu</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>MS 1</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>2125751</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Maç Sonucu</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>MS 1</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ÇİN</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>2125626</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Altı/Üstü 2,5</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2,5 Üst</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Sarpsborg</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>2125755</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>İlk Yarı Sonucu</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>İY 1</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>BRUS1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Torp. Zhodino</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Neman Grodno</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>2125621</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Altı/Üstü 2,5</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2,5 Alt</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>AVU2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SV Horn</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Kapfenberg</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>2125592</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Toplam Gol</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2-3 Gol</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Suudi Prof</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>AL Orouba SC</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>AL Khaleej</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>2123390</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Maç Sonucu</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>MS 1</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BRUS1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Torp. Zhodino</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Neman Grodno</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2125621</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Maç Sonucu</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>MS 1</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ÇİN</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Zhejiang</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>2125626</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Toplam Gol</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2-3 Gol</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Bugün</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Suudi Prof</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>2123386</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Maç Sonucu</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>MS 2</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
